--- a/biology/Zoologie/Hyalesthes_obsoletus/Hyalesthes_obsoletus.xlsx
+++ b/biology/Zoologie/Hyalesthes_obsoletus/Hyalesthes_obsoletus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyalesthes obsoletus (fulgore du stolbur) est une espèce d'insectes hémiptères de la famille des Cixiidae.
 Cet insecte est le vecteur de microorganismes pathogènes, des phytoplasmes, (sortes de bactéries sans paroi cellulaire de la classe des  mollicutes) qui affectent diverses espèces de plantes, provoquant notamment la maladie du stolbur chez les Solanaceae (pomme de terre, tomate, etc.), la maladie du bois noir de la vigne et le dépérissement des lavandes.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elidiptera hyalesthes Amyot, 1847
 Hyalesthes lacotei (Dlabola, 1970)
@@ -545,9 +559,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Hyalesthes obsoletus comprend l'Europe, le Proche-Orient et l'Afrique du Nord[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Hyalesthes obsoletus comprend l'Europe, le Proche-Orient et l'Afrique du Nord.
 </t>
         </is>
       </c>
